--- a/korea-prop-high-rise-buildings-seoul-20160819/korea-prop-high-rise-buildings-seoul-20160819.xlsx
+++ b/korea-prop-high-rise-buildings-seoul-20160819/korea-prop-high-rise-buildings-seoul-20160819.xlsx
@@ -14,31 +14,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
+    <t>label</t>
+  </si>
+  <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>Seoul</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>label</t>
+    <t>Other Cities/Provinces</t>
   </si>
   <si>
     <t>headline</t>
-  </si>
-  <si>
-    <t>Seoul</t>
-  </si>
-  <si>
-    <t>South Korea Rising</t>
-  </si>
-  <si>
-    <t>Other Cities/Provinces</t>
   </si>
   <si>
     <t>Busan</t>
   </si>
   <si>
     <t>Daegu</t>
+  </si>
+  <si>
+    <t>South Korea Rising</t>
   </si>
   <si>
     <t>Incheon</t>
@@ -59,19 +59,22 @@
     <t>Other</t>
   </si>
   <si>
+    <t>01/01/05</t>
+  </si>
+  <si>
     <t>subhed</t>
   </si>
   <si>
     <t>The number of &lt;strong&gt;apartment buildings&lt;/strong&gt; in South Korea taller than &lt;strong&gt;30 floors&lt;/strong&gt; has increased dramatically since 2005. Much of the growth has been outside the capital city, Seoul.</t>
   </si>
   <si>
-    <t>01/01/05</t>
+    <t>64</t>
   </si>
   <si>
     <t>footnote</t>
   </si>
   <si>
-    <t>64</t>
+    <t>70</t>
   </si>
   <si>
     <t>source</t>
@@ -80,22 +83,13 @@
     <t>Korean Statistical Information Service, &lt;a href="http://kosis.kr/statHtml/statHtml.do?orgId=116&amp;tblId=DT_MLTM_524&amp;conn_path=I2&amp;language=en"&gt;Building Census&lt;/a&gt;</t>
   </si>
   <si>
+    <t>01/01/06</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
     <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>annotation_label-other-2015</t>
-  </si>
-  <si>
-    <t>01/01/06</t>
-  </si>
-  <si>
-    <t>1,209</t>
   </si>
   <si>
     <t>63</t>
@@ -113,12 +107,6 @@
     <t>128</t>
   </si>
   <si>
-    <t>annotation_label-seoul-2015</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
     <t>01/01/08</t>
   </si>
   <si>
@@ -128,6 +116,9 @@
     <t>155</t>
   </si>
   <si>
+    <t>annotation_label-other-2015</t>
+  </si>
+  <si>
     <t>01/01/09</t>
   </si>
   <si>
@@ -135,6 +126,9 @@
   </si>
   <si>
     <t>158</t>
+  </si>
+  <si>
+    <t>1,209</t>
   </si>
   <si>
     <t>01/01/10</t>
@@ -158,7 +152,13 @@
     <t>242</t>
   </si>
   <si>
+    <t>annotation_label-seoul-2015</t>
+  </si>
+  <si>
     <t>195</t>
+  </si>
+  <si>
+    <t>269</t>
   </si>
   <si>
     <t>01/01/13</t>
@@ -197,18 +197,18 @@
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font>
       <sz val="14.0"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
     </font>
     <font>
       <sz val="14.0"/>
@@ -240,24 +240,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE2ECF8"/>
+        <bgColor rgb="FFE2ECF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2ECF8"/>
-        <bgColor rgb="FFE2ECF8"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -279,7 +274,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -291,8 +285,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -300,82 +292,82 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="3" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -385,15 +377,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,43 +399,43 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
+      <c r="A2" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -468,11 +463,11 @@
       <c r="Z2" s="10"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -500,10 +495,10 @@
       <c r="Z3" s="10"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14"/>
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="15"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -530,11 +525,11 @@
       <c r="Z4" s="10"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
+      <c r="A5" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -562,11 +557,11 @@
       <c r="Z5" s="10"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>23</v>
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -594,8 +589,8 @@
       <c r="Z6" s="10"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -622,11 +617,11 @@
       <c r="Z7" s="10"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>25</v>
+      <c r="A8" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -654,11 +649,11 @@
       <c r="Z8" s="10"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>33</v>
+      <c r="A9" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -686,8 +681,8 @@
       <c r="Z9" s="10"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -888,6 +883,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -907,21 +905,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>9</v>
@@ -959,543 +957,543 @@
       <c r="AB1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="A2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="14">
         <v>100.0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="16">
         <v>9.0</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>0.0</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>0.0</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>0.0</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="16">
         <v>0.0</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <v>21.0</v>
       </c>
       <c r="L2">
         <v>0.0</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AB2" s="17"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AB2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>152.0</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="16">
         <v>18.0</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>0.0</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>0.0</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>2.0</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <v>0.0</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="16">
         <v>23.0</v>
       </c>
       <c r="L3">
         <v>2.0</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AB3" s="17"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AB3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="14">
+        <v>222.0</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="15">
-        <v>222.0</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>25.0</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>10.0</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>0.0</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>8.0</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>0.0</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="16">
         <v>50.0</v>
       </c>
       <c r="L4">
         <v>9.0</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AB4" s="17"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AB4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="A5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="14">
         <v>316.0</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="16">
         <v>29.0</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>17.0</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>0.0</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>16.0</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>1.0</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <v>83.0</v>
       </c>
       <c r="L5">
         <v>32.0</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AB5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AB5" s="16"/>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="A6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="14">
         <v>386.0</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="16">
         <v>43.0</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>31.0</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>0.0</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>16.0</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <v>8.0</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="16">
         <v>90.0</v>
       </c>
       <c r="L6">
         <v>64.0</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AB6" s="17"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AB6" s="16"/>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="14">
+        <v>536.0</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="15">
-        <v>536.0</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>57.0</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>69.0</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>0.0</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>17.0</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>14.0</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <v>145.0</v>
       </c>
       <c r="L7">
         <v>102.0</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AB7" s="17"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AB7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="A8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="14">
         <v>654.0</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="16">
         <v>59.0</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>112.0</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>1.0</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>17.0</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>28.0</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <v>168.0</v>
       </c>
       <c r="L8">
         <v>128.0</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AB8" s="17"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AB8" s="16"/>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="14">
+        <v>778.0</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="15">
-        <v>778.0</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>58.0</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>168.0</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>1.0</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>29.0</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <v>36.0</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>206.0</v>
       </c>
       <c r="L9">
         <v>151.0</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AB9" s="17"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AB9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>941.0</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>66.0</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>215.0</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>1.0</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>30.0</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>44.0</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <v>248.0</v>
       </c>
       <c r="L10">
         <v>162.0</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AB10" s="17"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AB10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>1061.0</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>70.0</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>231.0</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>1.0</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>52.0</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>57.0</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>256.0</v>
       </c>
       <c r="L11">
         <v>227.0</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AB11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AB11" s="16"/>
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="14">
         <v>1209.0</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>70.0</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>247.0</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>1.0</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>53.0</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>74.0</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>302.0</v>
       </c>
       <c r="L12">
         <v>283.0</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AB12" s="17"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AB12" s="16"/>
     </row>
     <row r="13">
       <c r="B13" s="22"/>
